--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/PO/012- Purchase order- for valve.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/PO/012- Purchase order- for valve.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\BAHL 12 floor Centrepoint Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A0F0D-9813-4D6E-8B2A-BAA0531F82D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5151151E-96F3-4605-BA6C-4C92C1CA9A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$26:$26</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>S No.</t>
   </si>
@@ -113,7 +113,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Bronze gate valve 1"</t>
+    <t>Bronze gate valve 1" (Threaded)</t>
+  </si>
+  <si>
+    <t>Strainer 1" (Threaded)</t>
   </si>
 </sst>
 </file>
@@ -550,13 +553,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>55666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -679,13 +682,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>150247</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>111122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -745,6 +748,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>458636</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>191435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03FA08C-E5BD-D0D6-1DAB-F9F8AF42EEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="19050"/>
+          <a:ext cx="10288436" cy="6697010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1015,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:H44"/>
+  <dimension ref="A10:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1092,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="F14" s="10">
-        <v>45613</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1148,89 +1195,104 @@
         <v>23</v>
       </c>
       <c r="C28" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="12">
-        <v>3750</v>
+        <v>3675</v>
       </c>
       <c r="F28" s="27">
-        <f t="shared" ref="F28" si="0">E28*C28</f>
-        <v>3750</v>
+        <f>E28*C28</f>
+        <v>29400</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="36" t="s">
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="12">
+        <v>3785</v>
+      </c>
+      <c r="F29" s="27">
+        <f>E29*C29</f>
+        <v>7570</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="21">
-        <f>SUM(F28:F28)</f>
-        <v>3750</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="22">
-        <f>F29*5%</f>
-        <v>187.5</v>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="21">
+        <f>SUM(F28:F29)</f>
+        <v>36970</v>
       </c>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="23">
-        <f>F29-F30</f>
-        <v>3562.5</v>
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="17.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="22">
+        <f>F30*5%</f>
+        <v>1848.5</v>
       </c>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="23">
+        <f>F30-F31</f>
+        <v>35121.5</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+    <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -1238,50 +1300,58 @@
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A35:F36"/>
+    <mergeCell ref="A36:F37"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="C30:E30"/>
     <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A18:F18"/>
   </mergeCells>
